--- a/Testdata/Templates/UtilityOutcome/ECON/OldImportLogic/ECON_OldImportExpectedResult_manipulated_data.xlsx
+++ b/Testdata/Templates/UtilityOutcome/ECON/OldImportLogic/ECON_OldImportExpectedResult_manipulated_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\CodePractice\selenium_python\RoughWorkspace\UtilityOutcome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\ECON\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E7C098-D683-4B2A-8B38-3E12DF6588E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321CD14A-B616-46B8-84A4-B565353F0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,11 +218,6 @@
     <t>Metastatic, hormone-relapsed prostate cancer for people in whom chemotherapy is not yet clinically indicated</t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline =  0.83 
-Docetaxel = 0.692 
-Post-docetaxel treatment = 0.70 </t>
-  </si>
-  <si>
     <t>2015 / Scotland</t>
   </si>
   <si>
@@ -262,6 +257,11 @@
   </si>
   <si>
     <t>1 line</t>
+  </si>
+  <si>
+    <t>Baseline =  0.83 
+Docetaxel = 0.692 
+Post-docetaxel treatment = 0.70</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -857,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>24</v>
@@ -904,7 +904,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>28</v>
@@ -942,7 +942,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
@@ -980,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>39</v>
@@ -1018,7 +1018,7 @@
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>45</v>
@@ -1056,7 +1056,7 @@
         <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
@@ -1076,31 +1076,31 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1114,31 +1114,31 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1153,15 +1153,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
@@ -1173,6 +1164,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,14 +1387,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1407,6 +1399,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testdata/Templates/UtilityOutcome/ECON/OldImportLogic/ECON_OldImportExpectedResult_manipulated_data.xlsx
+++ b/Testdata/Templates/UtilityOutcome/ECON/OldImportLogic/ECON_OldImportExpectedResult_manipulated_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\ECON\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A4561-8D33-4D89-8297-43BA8624F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E8F8E-5110-44D3-9EBB-3380E3D3FD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Disutility point estimates reported with health states</t>
   </si>
   <si>
-    <t>Article Identifier(s)</t>
-  </si>
-  <si>
     <t>Year / Country</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>1 Line</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
@@ -807,31 +807,31 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -848,31 +848,31 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -886,31 +886,31 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -924,31 +924,31 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -962,31 +962,31 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1000,31 +1000,31 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1038,31 +1038,31 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1076,31 +1076,31 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1114,31 +1114,31 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1153,6 +1153,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1363,15 +1372,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1387,6 +1387,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1401,14 +1409,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
